--- a/teaching/traditional_assets/database/data/vietnam/vietnam_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_investments_asset_management.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1814285714285714</v>
+        <v>0.07488789237668161</v>
       </c>
       <c r="H2">
-        <v>0.1814285714285714</v>
+        <v>0.07488789237668161</v>
       </c>
       <c r="I2">
-        <v>0.1835714285714286</v>
+        <v>0.2035874439461883</v>
       </c>
       <c r="J2">
-        <v>0.163267316017316</v>
+        <v>0.1610271377764033</v>
       </c>
       <c r="K2">
-        <v>2.35</v>
+        <v>3.67</v>
       </c>
       <c r="L2">
-        <v>0.1678571428571429</v>
+        <v>0.1645739910313901</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="V2">
-        <v>0.4039125431530495</v>
+        <v>0.1538461538461538</v>
       </c>
       <c r="W2">
-        <v>0.2025862068965517</v>
+        <v>0.2602836879432624</v>
       </c>
       <c r="X2">
-        <v>0.07938531245281444</v>
+        <v>0.08527046641588971</v>
       </c>
       <c r="Y2">
-        <v>0.1232008944437373</v>
+        <v>0.1750132215273727</v>
       </c>
       <c r="Z2">
-        <v>1.245773269264994</v>
+        <v>1.747922871923499</v>
       </c>
       <c r="AA2">
-        <v>0.2033940580390127</v>
+        <v>0.2814630171197517</v>
       </c>
       <c r="AB2">
-        <v>0.07341424716634759</v>
+        <v>0.06874994856208377</v>
       </c>
       <c r="AC2">
-        <v>0.1299798108726651</v>
+        <v>0.212713068557668</v>
       </c>
       <c r="AD2">
-        <v>2.74</v>
+        <v>18.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.74</v>
+        <v>18.9</v>
       </c>
       <c r="AG2">
-        <v>-0.7699999999999996</v>
+        <v>15.5</v>
       </c>
       <c r="AH2">
-        <v>0.2397200349956256</v>
+        <v>0.4609756097560975</v>
       </c>
       <c r="AI2">
-        <v>0.1617473435655254</v>
+        <v>0.5206611570247934</v>
       </c>
       <c r="AJ2">
-        <v>-0.09722222222222217</v>
+        <v>0.4122340425531914</v>
       </c>
       <c r="AK2">
-        <v>-0.05733432613551747</v>
+        <v>0.4711246200607903</v>
       </c>
       <c r="AL2">
-        <v>0.023</v>
+        <v>0.211</v>
       </c>
       <c r="AM2">
-        <v>-0.08799999999999999</v>
+        <v>0.07099999999999998</v>
       </c>
       <c r="AN2">
-        <v>1.003663003663004</v>
+        <v>4.029850746268656</v>
       </c>
       <c r="AO2">
-        <v>111.7391304347826</v>
+        <v>21.51658767772512</v>
       </c>
       <c r="AP2">
-        <v>-0.2820512820512819</v>
+        <v>3.304904051172707</v>
       </c>
       <c r="AQ2">
-        <v>-29.20454545454545</v>
+        <v>63.94366197183101</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1814285714285714</v>
+        <v>0.07488789237668161</v>
       </c>
       <c r="H3">
-        <v>0.1814285714285714</v>
+        <v>0.07488789237668161</v>
       </c>
       <c r="I3">
-        <v>0.1835714285714286</v>
+        <v>0.2035874439461883</v>
       </c>
       <c r="J3">
-        <v>0.163267316017316</v>
+        <v>0.1610271377764033</v>
       </c>
       <c r="K3">
-        <v>2.35</v>
+        <v>3.67</v>
       </c>
       <c r="L3">
-        <v>0.1678571428571429</v>
+        <v>0.1645739910313901</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="V3">
-        <v>0.4039125431530495</v>
+        <v>0.1538461538461538</v>
       </c>
       <c r="W3">
-        <v>0.2025862068965517</v>
+        <v>0.2602836879432624</v>
       </c>
       <c r="X3">
-        <v>0.07938531245281444</v>
+        <v>0.08527046641588971</v>
       </c>
       <c r="Y3">
-        <v>0.1232008944437373</v>
+        <v>0.1750132215273727</v>
       </c>
       <c r="Z3">
-        <v>1.245773269264994</v>
+        <v>1.747922871923499</v>
       </c>
       <c r="AA3">
-        <v>0.2033940580390127</v>
+        <v>0.2814630171197517</v>
       </c>
       <c r="AB3">
-        <v>0.07341424716634759</v>
+        <v>0.06874994856208377</v>
       </c>
       <c r="AC3">
-        <v>0.1299798108726651</v>
+        <v>0.212713068557668</v>
       </c>
       <c r="AD3">
-        <v>2.74</v>
+        <v>18.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.74</v>
+        <v>18.9</v>
       </c>
       <c r="AG3">
-        <v>-0.7699999999999996</v>
+        <v>15.5</v>
       </c>
       <c r="AH3">
-        <v>0.2397200349956256</v>
+        <v>0.4609756097560975</v>
       </c>
       <c r="AI3">
-        <v>0.1617473435655254</v>
+        <v>0.5206611570247934</v>
       </c>
       <c r="AJ3">
-        <v>-0.09722222222222217</v>
+        <v>0.4122340425531914</v>
       </c>
       <c r="AK3">
-        <v>-0.05733432613551747</v>
+        <v>0.4711246200607903</v>
       </c>
       <c r="AL3">
-        <v>0.023</v>
+        <v>0.211</v>
       </c>
       <c r="AM3">
-        <v>-0.08799999999999999</v>
+        <v>0.07099999999999998</v>
       </c>
       <c r="AN3">
-        <v>1.003663003663004</v>
+        <v>4.029850746268656</v>
       </c>
       <c r="AO3">
-        <v>111.7391304347826</v>
+        <v>21.51658767772512</v>
       </c>
       <c r="AP3">
-        <v>-0.2820512820512819</v>
+        <v>3.304904051172707</v>
       </c>
       <c r="AQ3">
-        <v>-29.20454545454545</v>
+        <v>63.94366197183101</v>
       </c>
     </row>
   </sheetData>
